--- a/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line B - 100RP/Sequence 32 - Holding vessel 2/100RP296_S32_Handler.xlsx
+++ b/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line B - 100RP/Sequence 32 - Holding vessel 2/100RP296_S32_Handler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/ProLeiT/Massafra/MassafraSQL/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line B - 100RP/Sequence 32 - Holding vessel 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30B33B3-135A-A245-B7AB-CE31E15007DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3868954-6011-6D4A-BBBF-25B958BBC330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9520" yWindow="-21140" windowWidth="51200" windowHeight="21140" activeTab="6" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
+    <workbookView xWindow="-9520" yWindow="-21600" windowWidth="25480" windowHeight="21600" activeTab="6" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="00 Value Source" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="97">
   <si>
     <r>
       <t xml:space="preserve">UPDATE </t>
@@ -458,6 +458,27 @@
   <si>
     <t>100RP296.1073742151SUPPLFX</t>
   </si>
+  <si>
+    <t>010: MES:Man data - Batch Nr HCl</t>
+  </si>
+  <si>
+    <t>012: MES:Man data - Batch Nr CaCl2</t>
+  </si>
+  <si>
+    <t>013: MES:Man data - Batch Nr Hop Extract</t>
+  </si>
+  <si>
+    <t>014: MES:Man data - Batch Nr Hop Pellets 1</t>
+  </si>
+  <si>
+    <t>015: MES:Man data - Batch Nr Hop Pellets 2</t>
+  </si>
+  <si>
+    <t>016: MES:Man data - Batch Nr Hop Pellets 3</t>
+  </si>
+  <si>
+    <t>017: MES:Man data - Batch Nr Hop Pellets 4</t>
+  </si>
 </sst>
 </file>
 
@@ -528,7 +549,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,6 +601,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -848,6 +881,9 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5167,14 +5203,14 @@
     <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="str">
         <f>CONCATENATE(B2,C2,D2,E2)</f>
-        <v>-- Function: Massafra -   | Bergamo - 11: Steam counter total</v>
+        <v>-- Function: Massafra -  11: Steam counter total | Bergamo - 11: Steam counter total</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$3="NULL","",IF(ISBLANK('01 Function Comparison'!$K$3),"",'01 Function Comparison'!$K$3))</f>
-        <v/>
+        <v>11: Steam counter total</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>25</v>
@@ -10409,7 +10445,7 @@
   <dimension ref="A1:P404"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10528,6 +10564,12 @@
       <c r="I3" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="J3" s="58">
+        <v>10</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>90</v>
+      </c>
       <c r="N3" s="11">
         <f>'00 Value Source'!H1</f>
         <v>11</v>
@@ -10570,6 +10612,15 @@
       <c r="I4" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="J4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="N4" s="11" t="str">
         <f>'00 Value Source'!H2</f>
         <v>NULL</v>
@@ -10612,6 +10663,15 @@
       <c r="I5" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="J5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="N5" s="11" t="str">
         <f>'00 Value Source'!H3</f>
         <v>NULL</v>
@@ -10654,6 +10714,15 @@
       <c r="I6" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="J6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="N6" s="11" t="str">
         <f>'00 Value Source'!H4</f>
         <v>NULL</v>
@@ -10696,6 +10765,15 @@
       <c r="I7" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="J7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="N7" s="11" t="str">
         <f>'00 Value Source'!H5</f>
         <v>NULL</v>
@@ -10738,6 +10816,15 @@
       <c r="I8" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="J8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="N8" s="11" t="str">
         <f>'00 Value Source'!H6</f>
         <v>NULL</v>
@@ -10780,6 +10867,15 @@
       <c r="I9" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="J9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="N9" s="11" t="str">
         <f>'00 Value Source'!H7</f>
         <v>NULL</v>
@@ -10822,6 +10918,15 @@
       <c r="I10" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="J10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="N10" s="11" t="str">
         <f>'00 Value Source'!H8</f>
         <v>NULL</v>
@@ -10864,6 +10969,15 @@
       <c r="I11" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="J11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="N11" s="11" t="str">
         <f>'00 Value Source'!H9</f>
         <v>NULL</v>
@@ -10906,6 +11020,15 @@
       <c r="I12" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="J12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="N12" s="11" t="str">
         <f>'00 Value Source'!H10</f>
         <v>NULL</v>
@@ -10948,6 +11071,15 @@
       <c r="I13" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="J13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="N13" s="11" t="str">
         <f>'00 Value Source'!H11</f>
         <v>NULL</v>
@@ -10989,6 +11121,15 @@
       </c>
       <c r="I14" s="4" t="s">
         <v>58</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="11" t="str">
         <f>'00 Value Source'!H12</f>
@@ -22707,8 +22848,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22826,6 +22967,9 @@
       </c>
       <c r="I3" s="4" t="s">
         <v>61</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>59</v>
       </c>
       <c r="N3" s="11" t="str">
         <f>'00 Function Source'!H1</f>
@@ -34593,14 +34737,14 @@
     <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="str">
         <f>CONCATENATE(B2,C2,D2,E2)</f>
-        <v>-- Value: Massafra -   | Bergamo - 11:MES:Man data - Batch Nr HCl</v>
+        <v>-- Value: Massafra -  010: MES:Man data - Batch Nr HCl | Bergamo - 11:MES:Man data - Batch Nr HCl</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$3="NULL","",IF(ISBLANK('01 Value Comparison'!$K$3),"",'01 Value Comparison'!$K$3))</f>
-        <v/>
+        <v>010: MES:Man data - Batch Nr HCl</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>25</v>
@@ -34666,14 +34810,14 @@
     <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="str">
         <f>CONCATENATE(B7,C7,D7,E7)</f>
-        <v>-- Value: Massafra -   | Bergamo - 12:MES:Man data - Batch Nr CaCl2</v>
+        <v>-- Value: Massafra -  012: MES:Man data - Batch Nr CaCl2 | Bergamo - 12:MES:Man data - Batch Nr CaCl2</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$4="NULL","",IF(ISBLANK('01 Value Comparison'!$K$4),"",'01 Value Comparison'!$K$4))</f>
-        <v/>
+        <v>012: MES:Man data - Batch Nr CaCl2</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>25</v>
@@ -34739,14 +34883,14 @@
     <row r="12" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="str">
         <f>CONCATENATE(B12,C12,D12,E12)</f>
-        <v>-- Value: Massafra -   | Bergamo - 13:MES:Man data - Batch Nr Hop Extract</v>
+        <v>-- Value: Massafra -  013: MES:Man data - Batch Nr Hop Extract | Bergamo - 13:MES:Man data - Batch Nr Hop Extract</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$5="NULL","",IF(ISBLANK('01 Value Comparison'!$K$5),"",'01 Value Comparison'!$K$5))</f>
-        <v/>
+        <v>013: MES:Man data - Batch Nr Hop Extract</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>25</v>
@@ -34812,14 +34956,14 @@
     <row r="17" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="str">
         <f>CONCATENATE(B17,C17,D17,E17)</f>
-        <v>-- Value: Massafra -   | Bergamo - 14:MES:Man data - Batch Nr Hop Pellets 1</v>
+        <v>-- Value: Massafra -  014: MES:Man data - Batch Nr Hop Pellets 1 | Bergamo - 14:MES:Man data - Batch Nr Hop Pellets 1</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$6="NULL","",IF(ISBLANK('01 Value Comparison'!$K$6),"",'01 Value Comparison'!$K$6))</f>
-        <v/>
+        <v>014: MES:Man data - Batch Nr Hop Pellets 1</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>25</v>
@@ -34885,14 +35029,14 @@
     <row r="22" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="str">
         <f>CONCATENATE(B22,C22,D22,E22)</f>
-        <v>-- Value: Massafra -   | Bergamo - 15:MES:Man data - Batch Nr Hop Pellets 2</v>
+        <v>-- Value: Massafra -  015: MES:Man data - Batch Nr Hop Pellets 2 | Bergamo - 15:MES:Man data - Batch Nr Hop Pellets 2</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$7="NULL","",IF(ISBLANK('01 Value Comparison'!$K$7),"",'01 Value Comparison'!$K$7))</f>
-        <v/>
+        <v>015: MES:Man data - Batch Nr Hop Pellets 2</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>25</v>
@@ -34958,14 +35102,14 @@
     <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="str">
         <f>CONCATENATE(B27,C27,D27,E27)</f>
-        <v>-- Value: Massafra -   | Bergamo - 16:MES:Man data - Batch Nr Hop Pellets 3</v>
+        <v>-- Value: Massafra -  016: MES:Man data - Batch Nr Hop Pellets 3 | Bergamo - 16:MES:Man data - Batch Nr Hop Pellets 3</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$8="NULL","",IF(ISBLANK('01 Value Comparison'!$K$8),"",'01 Value Comparison'!$K$8))</f>
-        <v/>
+        <v>016: MES:Man data - Batch Nr Hop Pellets 3</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>25</v>
@@ -35031,14 +35175,14 @@
     <row r="32" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="str">
         <f>CONCATENATE(B32,C32,D32,E32)</f>
-        <v>-- Value: Massafra -   | Bergamo - 17:MES:Man data - Batch Nr Hop Pellets 4</v>
+        <v>-- Value: Massafra -  017: MES:Man data - Batch Nr Hop Pellets 4 | Bergamo - 17:MES:Man data - Batch Nr Hop Pellets 4</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$9="NULL","",IF(ISBLANK('01 Value Comparison'!$K$9),"",'01 Value Comparison'!$K$9))</f>
-        <v/>
+        <v>017: MES:Man data - Batch Nr Hop Pellets 4</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>25</v>
@@ -35104,14 +35248,14 @@
     <row r="37" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="str">
         <f>CONCATENATE(B37,C37,D37,E37)</f>
-        <v>-- Value: Massafra -   | Bergamo - 018: MES: Time Transfer MF/BT - WK</v>
+        <v>-- Value: Massafra -  018: MES: Time Transfer MF/BT - WK | Bergamo - 018: MES: Time Transfer MF/BT - WK</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C37" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$10="NULL","",IF(ISBLANK('01 Value Comparison'!$K$10),"",'01 Value Comparison'!$K$10))</f>
-        <v/>
+        <v>018: MES: Time Transfer MF/BT - WK</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>25</v>
@@ -35177,14 +35321,14 @@
     <row r="42" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="38" t="str">
         <f>CONCATENATE(B42,C42,D42,E42)</f>
-        <v>-- Value: Massafra -   | Bergamo - 020: MES: Man data - Alfa acids Hop Pellet 1</v>
+        <v>-- Value: Massafra -  020: MES: Man data - Alfa acids Hop Pellet 1 | Bergamo - 020: MES: Man data - Alfa acids Hop Pellet 1</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C42" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$11="NULL","",IF(ISBLANK('01 Value Comparison'!$K$11),"",'01 Value Comparison'!$K$11))</f>
-        <v/>
+        <v>020: MES: Man data - Alfa acids Hop Pellet 1</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>25</v>
@@ -35250,14 +35394,14 @@
     <row r="47" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="38" t="str">
         <f>CONCATENATE(B47,C47,D47,E47)</f>
-        <v>-- Value: Massafra -   | Bergamo - 021: MES: Man data - Alfa acids Hop Pellet 2</v>
+        <v>-- Value: Massafra -  021: MES: Man data - Alfa acids Hop Pellet 2 | Bergamo - 021: MES: Man data - Alfa acids Hop Pellet 2</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$12="NULL","",IF(ISBLANK('01 Value Comparison'!$K$12),"",'01 Value Comparison'!$K$12))</f>
-        <v/>
+        <v>021: MES: Man data - Alfa acids Hop Pellet 2</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>25</v>
@@ -35323,14 +35467,14 @@
     <row r="52" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="38" t="str">
         <f>CONCATENATE(B52,C52,D52,E52)</f>
-        <v>-- Value: Massafra -   | Bergamo - 022: MES: Man data - Alfa acids Hop Pellet 3</v>
+        <v>-- Value: Massafra -  022: MES: Man data - Alfa acids Hop Pellet 3 | Bergamo - 022: MES: Man data - Alfa acids Hop Pellet 3</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C52" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$13="NULL","",IF(ISBLANK('01 Value Comparison'!$K$13),"",'01 Value Comparison'!$K$13))</f>
-        <v/>
+        <v>022: MES: Man data - Alfa acids Hop Pellet 3</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>25</v>
@@ -35396,14 +35540,14 @@
     <row r="57" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="38" t="str">
         <f>CONCATENATE(B57,C57,D57,E57)</f>
-        <v>-- Value: Massafra -   | Bergamo - 023: MES: Man data - Alfa acids Hop Extract</v>
+        <v>-- Value: Massafra -  023: MES: Man data - Alfa acids Hop Extract | Bergamo - 023: MES: Man data - Alfa acids Hop Extract</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C57" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$14="NULL","",IF(ISBLANK('01 Value Comparison'!$K$14),"",'01 Value Comparison'!$K$14))</f>
-        <v/>
+        <v>023: MES: Man data - Alfa acids Hop Extract</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>25</v>
